--- a/Docs/Tablas - Obed Cabanzo.xlsx
+++ b/Docs/Tablas - Obed Cabanzo.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obedc\OneDrive\Documentos\GitHub\ISIS1225-Collision-S07-G06\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC9102-824B-4BD0-A25A-C5DFD3FAFAFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE0C4ED-E4C6-459D-8C87-68D67F8C9AA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20490" windowHeight="10875" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="20490" windowHeight="10875" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
+    <sheet name="Tiempo" sheetId="14" r:id="rId3"/>
+    <sheet name="Memoria" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -62,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +82,15 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -119,11 +130,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,7 +1080,1593 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Comparación de tiempo en PROBING y CHAINING </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo PROBING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7300859870857126E-2"/>
+                  <c:y val="-7.4945265980758194E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37125.981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37668.264999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37735.298999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8ED7-46B6-9807-1A5719C3A19D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo CHAINING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0880524295217594E-3"/>
+                  <c:y val="0.35963966412615095"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$10:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37445.777000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37640.091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38501.548000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8ED7-46B6-9807-1A5719C3A19D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696671312"/>
+        <c:axId val="1833162896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696671312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>FACTOR DE CARGA</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46273136522066804"/>
+              <c:y val="0.87220167453158215"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833162896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1833162896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo de ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696671312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Comparación de memoria en PROBING y CHAINING </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo PROBING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10623447657496612"/>
+                  <c:y val="7.8087359918625421E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>488185.40600000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488185.40600000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>488185.40600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A206-4E30-A478-F083EC7002C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo CHAINING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.358026148472167E-3"/>
+                  <c:y val="0.1051475598605098"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$10:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>488216.55499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488211.234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>488211.234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A206-4E30-A478-F083EC7002C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696671312"/>
+        <c:axId val="1833162896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696671312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>FACTOR DE CARGA</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46273136522066804"/>
+              <c:y val="0.87220167453158215"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833162896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1833162896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Consumo de Datos [kB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696671312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1605,11 +3205,1015 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1620,13 +4224,79 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:ext cx="8659091" cy="6284026"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="3048000" y="381000"/>
+    <xdr:ext cx="8659091" cy="6284026"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6221BE66-EF7D-4F62-9D14-51B7E524447E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="762000" y="4953000"/>
+    <xdr:ext cx="8659091" cy="6284026"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831619E5-0D0A-4D69-993D-4E2466160CF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,27 +4638,599 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2035,11 +5277,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2086,7 +5328,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
     </row>
     <row r="21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2099,6 +5344,36 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880246B-FB26-471A-86A1-11FA23046508}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942EF75E-32C3-452D-BE38-41ACD26ED6B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2314,18 +5589,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2348,14 +5623,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2370,4 +5637,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>